--- a/apps/empty_book.xlsx
+++ b/apps/empty_book.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:F6"/>
+  <dimension ref="A2:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,63 +517,39 @@
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para cubrir el incremento de la cartera </t>
+          <t>Osly Peralta</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Permanente</t>
+          <t>Temporal</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Supervisor Legal</t>
+          <t>GESTOR DE COBROS</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>Julio</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr"/>
+          <t>Noviembre</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Diciembre</t>
+        </is>
+      </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>Para supervision a nivel nacional de los oficiales legales y abogados</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>Permanente</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>GESTOR DE COBROS DOMIC.</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>Enero</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="inlineStr"/>
-      <c r="F6" s="3" t="inlineStr">
-        <is>
-          <t>asignado a la Regional Nor Occidente, ya que solo hay 1 gestor domiciliario y no se da abasto para cubrir la zona en vista que son 12 filiales</t>
+          <t>Cierre de año 2021</t>
         </is>
       </c>
     </row>

--- a/apps/empty_book.xlsx
+++ b/apps/empty_book.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="PPTO. PERSONAL" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="PPTO. INVERSION" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:F5"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,48 +442,54 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="35" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="35" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="100" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="100" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>Presupuesto Personal de Recuperaciones (Cobranzas)</t>
+    <row r="1">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Presupuesto de Inversión:  SIGUATEPEQUE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Tipo Personal</t>
+          <t>Cuenta Contable</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Puesto</t>
+          <t>Mes</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
+          <t>Producto</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
           <t>Cantidad</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>Mes Inicio</t>
-        </is>
-      </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>Mes Fin</t>
+          <t>Precio Unitario</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>Justificación</t>
         </is>
@@ -492,64 +498,592 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Temporal</t>
+          <t>SOFTWARE</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>GESTOR DE COBROS</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t xml:space="preserve">Software </t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>Enero</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>Diciembre</t>
+          <t>400.0</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>Osly Peralta</t>
+          <t>1200.0</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>Inversion ingresada en modulo de traslado. En fecha 2021-09-30 20:57:04.918191</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Temporal</t>
+          <t>MOBILIARIO Y EQUIPO</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>GESTOR DE COBROS</t>
+          <t>Septiembre</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
+          <t>AIRE ACONDICIONADO</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Inversion ingresada en modulo de traslado. En fecha 2021-09-30 20:58:19.380962</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>MOBILIARIO Y EQUIPO</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Septiembre</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>AIRE ACONDICIONADO</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>Inversion ingresada en modulo de traslado. En fecha 2021-09-30 20:58:51.593635</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>MOBILIARIO Y EQUIPO</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Septiembre</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>BANDERAS</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>9800.0</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>Inversion ingresada en modulo de traslado. En fecha 2021-09-30 21:00:33.890795</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>MOBILIARIO Y EQUIPO</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>Enero</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>MICROONDAS</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>68000.0</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>4000.0</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>Por cambio debido a desperfectos de microondas existente.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>MOBILIARIO Y EQUIPO</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Enero</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>SILLA PARA CAJERO</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>6600.0</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>11000.0</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>Cambio de sillas para personal de caja, por desgaste y deterioro.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>SOFTWARE</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>Febrero</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Software </t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>3244.0</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>9732.0</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>Lorem Ipsum</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>MOBILIARIO Y EQUIPO</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>Enero</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>SILLA SEMI EJECUTIVA</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>46000.0</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>12000.0</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>Cambio de sillas personal de plataforma.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>EQUIPO DE PROYECCIÓN Y SONIDO</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Enero</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>BRAZO PARA EQUIPO</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>3456.0</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>13824.0</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>Lorem Lorem LoremLorem</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>EQUIPO DE COMPUTO</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Diciembre</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>CABEZALES PARA IMPRESORAS</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>3560.0</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>14240.0</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>LOrem Ipsum</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>EQUIPO DE COMPUTO</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>Febrero</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>BATERIA UPS</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>3500.0</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>10500.0</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>Lorem Ipsuim</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>EQUIPO DE COMPUTO</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Febrero</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>BATERIA UPS</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>3500.0</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>10500.0</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>Lorem Ipsuim</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>EQUIPO DE COMPUTO</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>Febrero</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>COMPUTADORAS</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>Noviembre</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>Diciembre</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>Cierre de año 2021</t>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>23560.0</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>47120.0</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>Lorem Ipsum</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>EQUIPO DE COMPUTO</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>Septiembre</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>COMPUTADORAS</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>14200.0</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>Inversion ingresada en modulo de traslado. En fecha 2021-09-30 21:09:24.491113</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>EQUIPO DE COMPUTO</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Septiembre</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>BATERIA UPS</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>8400.0</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>5000.0</t>
+        </is>
+      </c>
+      <c r="G18" s="3" t="inlineStr">
+        <is>
+          <t>Inversion ingresada en modulo de traslado. En fecha 2021-09-30 21:06:28.183761</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>EQUIPO DE COMPUTO</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Octubre</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>CABEZALES PARA IMPRESORAS</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>Inversion ingresada en modulo de traslado. En fecha 2021-10-04 14:29:48.133902</t>
         </is>
       </c>
     </row>
